--- a/doc/imagenes/facerecognition-results-num-nodes.xlsx
+++ b/doc/imagenes/facerecognition-results-num-nodes.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="25808"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniellanzagarcia/git/ecj/doc/imagenes/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="36460" yWindow="460" windowWidth="17940" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="25600" windowHeight="18660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -103,14 +108,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -126,7 +131,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -326,13 +331,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2099292536"/>
-        <c:axId val="2099282152"/>
+        <c:axId val="2099379376"/>
+        <c:axId val="2099346880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2099292536"/>
+        <c:axId val="2099379376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -368,7 +372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099282152"/>
+        <c:crossAx val="2099346880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -376,7 +380,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099282152"/>
+        <c:axId val="2099346880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -414,7 +418,264 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099292536"/>
+        <c:crossAx val="2099379376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0835358553366949"/>
+          <c:y val="0.0462633451957295"/>
+          <c:w val="0.860414011852759"/>
+          <c:h val="0.781684647070362"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Secuencial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$D$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Evaluacion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$D$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$13:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2099326544"/>
+        <c:axId val="2099401776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2099326544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" dirty="0" smtClean="0"/>
+                  <a:t>Number of nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.630925127291951"/>
+              <c:y val="0.897419218918705"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2099401776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2099401776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" dirty="0" smtClean="0"/>
+                  <a:t>Minutes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES" dirty="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0792624570577326"/>
+              <c:y val="0.044994094488189"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2099326544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -620,6 +881,144 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" dirty="0" smtClean="0"/>
             <a:t>Secuencial</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" dirty="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>772160</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="808426" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7955280" y="3058160"/>
+          <a:ext cx="808426" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" dirty="0" smtClean="0"/>
+            <a:t>Sequential</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" dirty="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>345440</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1413657" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7985760" y="4805680"/>
+          <a:ext cx="1413657" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" dirty="0" smtClean="0"/>
+            <a:t>Hadoop (distributed)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" dirty="0"/>
         </a:p>
@@ -954,21 +1353,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:6">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -982,7 +1381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -996,7 +1395,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -1012,7 +1411,7 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -1026,17 +1425,12 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="19" spans="8:8" ht="26">
+    <row r="19" spans="8:8" ht="28" x14ac:dyDescent="0.3">
       <c r="H19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/doc/imagenes/facerecognition-results-num-nodes.xlsx
+++ b/doc/imagenes/facerecognition-results-num-nodes.xlsx
@@ -177,17 +177,20 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$D$10:$F$10</c:f>
+              <c:f>Hoja1!$D$10:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -195,10 +198,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$11:$F$11</c:f>
+              <c:f>Hoja1!$D$11:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>44.5</c:v>
                 </c:pt>
@@ -206,6 +209,9 @@
                   <c:v>44.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>44.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -232,17 +238,20 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$D$10:$F$10</c:f>
+              <c:f>Hoja1!$D$10:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -250,18 +259,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$12:$F$12</c:f>
+              <c:f>Hoja1!$D$12:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.5</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.333333333333333</c:v>
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.833333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -287,17 +299,20 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$D$10:$F$10</c:f>
+              <c:f>Hoja1!$D$10:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -305,17 +320,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$13:$F$13</c:f>
+              <c:f>Hoja1!$D$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>11.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6.4</c:v>
                 </c:pt>
               </c:numCache>
@@ -332,11 +350,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2099379376"/>
-        <c:axId val="2099346880"/>
+        <c:axId val="2119671248"/>
+        <c:axId val="2119680800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2099379376"/>
+        <c:axId val="2119671248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,7 +390,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099346880"/>
+        <c:crossAx val="2119680800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -380,7 +398,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099346880"/>
+        <c:axId val="2119680800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -418,7 +436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099379376"/>
+        <c:crossAx val="2119671248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -489,7 +507,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$D$10:$F$10</c:f>
+              <c:f>Hoja1!$E$10:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -507,7 +525,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$11:$F$11</c:f>
+              <c:f>Hoja1!$E$11:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -544,7 +562,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$D$10:$F$10</c:f>
+              <c:f>Hoja1!$E$10:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -562,7 +580,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$13:$F$13</c:f>
+              <c:f>Hoja1!$E$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -589,11 +607,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2099326544"/>
-        <c:axId val="2099401776"/>
+        <c:axId val="2119583328"/>
+        <c:axId val="2101652896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2099326544"/>
+        <c:axId val="2119583328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +647,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099401776"/>
+        <c:crossAx val="2101652896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -637,7 +655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099401776"/>
+        <c:axId val="2101652896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099326544"/>
+        <c:crossAx val="2119583328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -707,7 +725,7 @@
       <xdr:rowOff>27940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>314960</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>27940</xdr:rowOff>
@@ -731,7 +749,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>20320</xdr:rowOff>
@@ -784,7 +802,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>294640</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>193040</xdr:rowOff>
@@ -837,7 +855,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>162560</xdr:rowOff>
@@ -890,13 +908,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>772160</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
@@ -922,7 +940,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>314960</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>10160</xdr:rowOff>
@@ -975,7 +993,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>345440</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
@@ -1351,37 +1369,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:H19"/>
+  <dimension ref="C6:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="3" max="4" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>4</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -1394,39 +1415,49 @@
       <c r="F11">
         <v>44.5</v>
       </c>
+      <c r="G11">
+        <v>44.5</v>
+      </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <f>D12/2</f>
-        <v>12.5</v>
+        <v>26.5</v>
       </c>
       <c r="F12">
-        <f>D12/3</f>
-        <v>8.3333333333333339</v>
+        <f>D12/4</f>
+        <v>13.25</v>
+      </c>
+      <c r="G12">
+        <f>D12/6</f>
+        <v>8.8333333333333339</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>2</v>
       </c>
       <c r="D13">
+        <v>53</v>
+      </c>
+      <c r="E13">
         <v>25</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>11.5</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>6.4</v>
       </c>
     </row>
-    <row r="19" spans="8:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="H19" s="1"/>
+    <row r="19" spans="9:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="I19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
